--- a/data/TopOnePercent/South China Normal University.xlsx
+++ b/data/TopOnePercent/South China Normal University.xlsx
@@ -184,16 +184,16 @@
         </is>
       </c>
       <c r="C7" s="3" t="n">
-        <v>2451.0</v>
+        <v>2320.0</v>
       </c>
       <c r="D7" s="3" t="n">
-        <v>31409.0</v>
+        <v>29204.0</v>
       </c>
       <c r="E7" s="3" t="n">
-        <v>12.81</v>
+        <v>12.59</v>
       </c>
       <c r="F7" s="3" t="n">
-        <v>12.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="8">
@@ -202,20 +202,20 @@
       </c>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>PHYSICS</t>
+          <t>MATERIALS SCIENCE</t>
         </is>
       </c>
       <c r="C8" s="3" t="n">
-        <v>2451.0</v>
+        <v>1071.0</v>
       </c>
       <c r="D8" s="3" t="n">
-        <v>21355.0</v>
+        <v>16501.0</v>
       </c>
       <c r="E8" s="3" t="n">
-        <v>8.71</v>
+        <v>15.41</v>
       </c>
       <c r="F8" s="3" t="n">
-        <v>16.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="9">
@@ -224,20 +224,20 @@
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>MATERIALS SCIENCE</t>
+          <t>ENGINEERING</t>
         </is>
       </c>
       <c r="C9" s="3" t="n">
-        <v>1060.0</v>
+        <v>683.0</v>
       </c>
       <c r="D9" s="3" t="n">
-        <v>16292.0</v>
+        <v>7241.0</v>
       </c>
       <c r="E9" s="3" t="n">
-        <v>15.37</v>
+        <v>10.6</v>
       </c>
       <c r="F9" s="3" t="n">
-        <v>10.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="10">
@@ -250,16 +250,16 @@
         </is>
       </c>
       <c r="C10" s="3" t="n">
-        <v>1336.0</v>
+        <v>1260.0</v>
       </c>
       <c r="D10" s="3" t="n">
-        <v>7434.0</v>
+        <v>6664.0</v>
       </c>
       <c r="E10" s="3" t="n">
-        <v>5.56</v>
+        <v>5.29</v>
       </c>
       <c r="F10" s="3" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="11">
@@ -268,17 +268,17 @@
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>ENGINEERING</t>
+          <t>PLANT &amp; ANIMAL SCIENCE</t>
         </is>
       </c>
       <c r="C11" s="3" t="n">
-        <v>674.0</v>
+        <v>505.0</v>
       </c>
       <c r="D11" s="3" t="n">
-        <v>7217.0</v>
+        <v>5739.0</v>
       </c>
       <c r="E11" s="3" t="n">
-        <v>10.71</v>
+        <v>11.36</v>
       </c>
       <c r="F11" s="3" t="n">
         <v>13.0</v>
@@ -286,52 +286,30 @@
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>PLANT &amp; ANIMAL SCIENCE</t>
+          <t>ALL FIELDS</t>
         </is>
       </c>
       <c r="C12" s="3" t="n">
-        <v>521.0</v>
+        <v>11272.0</v>
       </c>
       <c r="D12" s="3" t="n">
-        <v>6327.0</v>
+        <v>117470.0</v>
       </c>
       <c r="E12" s="3" t="n">
-        <v>12.14</v>
+        <v>10.42</v>
       </c>
       <c r="F12" s="3" t="n">
-        <v>13.0</v>
+        <v>107.0</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>ALL FIELDS</t>
-        </is>
-      </c>
-      <c r="C13" s="3" t="n">
-        <v>11529.0</v>
-      </c>
-      <c r="D13" s="3" t="n">
-        <v>123851.0</v>
-      </c>
-      <c r="E13" s="3" t="n">
-        <v>10.74</v>
-      </c>
-      <c r="F13" s="3" t="n">
-        <v>101.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Copyright © 2019 Clarivate Analytics</t>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Copyright © 2020 Clarivate Analytics</t>
         </is>
       </c>
     </row>
